--- a/apps/load_data/2016/07/PLMOVMAE.xlsx
+++ b/apps/load_data/2016/07/PLMOVMAE.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20417"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NOMBRADOS -2016\HHY0716\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ACTUALIZADOS\2016\HHY0716\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{251095C1-CA68-498A-A055-8125D2D32CEE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BADB3598-4996-4FE3-9274-0DF69F5FCBB4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13800" windowHeight="10305"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13800" windowHeight="10305" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PLMOVMAE" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">PLMOVMAE!$A$1:$CF$238</definedName>
     <definedName name="_xlnm.Database">PLMOVMAE!$A$1:$CF$238</definedName>
   </definedNames>
   <calcPr calcId="0"/>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9203" uniqueCount="2397">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9191" uniqueCount="2396">
   <si>
     <t>CODEJE</t>
   </si>
@@ -6458,9 +6459,6 @@
   </si>
   <si>
     <t>08771747</t>
-  </si>
-  <si>
-    <t>S/N</t>
   </si>
   <si>
     <t>1047     99709     997091054     30000     300001081    296920    2969201082    159880    1598802001         0     386002006     42200     422002026    202284    2022842086      2500         02180       250         02182       100         0</t>
@@ -7219,7 +7217,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
@@ -8059,10 +8057,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CF238"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AD221" sqref="AC210:AD221"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -43831,12 +43831,7 @@
       <c r="AA210" s="1">
         <v>0</v>
       </c>
-      <c r="AC210" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD210" s="1" t="s">
-        <v>2145</v>
-      </c>
+      <c r="AC210" s="3"/>
       <c r="AF210" s="1" t="s">
         <v>103</v>
       </c>
@@ -43895,10 +43890,10 @@
         <v>109</v>
       </c>
       <c r="BH210" s="1" t="s">
+        <v>2145</v>
+      </c>
+      <c r="BI210" s="1" t="s">
         <v>2146</v>
-      </c>
-      <c r="BI210" s="1" t="s">
-        <v>2147</v>
       </c>
       <c r="BM210" s="1" t="s">
         <v>112</v>
@@ -43907,7 +43902,7 @@
         <v>102</v>
       </c>
       <c r="BT210" s="1" t="s">
-        <v>2148</v>
+        <v>2147</v>
       </c>
       <c r="BU210" s="1" t="s">
         <v>116</v>
@@ -43928,13 +43923,13 @@
         <v>98</v>
       </c>
       <c r="CC210" s="1" t="s">
+        <v>2148</v>
+      </c>
+      <c r="CD210" s="1" t="s">
         <v>2149</v>
       </c>
-      <c r="CD210" s="1" t="s">
+      <c r="CE210" s="1" t="s">
         <v>2150</v>
-      </c>
-      <c r="CE210" s="1" t="s">
-        <v>2151</v>
       </c>
     </row>
     <row r="211" spans="1:83" x14ac:dyDescent="0.25">
@@ -43969,13 +43964,13 @@
         <v>93</v>
       </c>
       <c r="K211" s="1" t="s">
+        <v>2151</v>
+      </c>
+      <c r="L211" s="1" t="s">
         <v>2152</v>
       </c>
-      <c r="L211" s="1" t="s">
+      <c r="N211" s="1" t="s">
         <v>2153</v>
-      </c>
-      <c r="N211" s="1" t="s">
-        <v>2154</v>
       </c>
       <c r="O211" s="1" t="s">
         <v>97</v>
@@ -44007,12 +44002,7 @@
       <c r="AB211" s="1" t="s">
         <v>1116</v>
       </c>
-      <c r="AC211" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD211" s="1" t="s">
-        <v>2145</v>
-      </c>
+      <c r="AC211" s="3"/>
       <c r="AF211" s="1" t="s">
         <v>103</v>
       </c>
@@ -44059,7 +44049,7 @@
         <v>98</v>
       </c>
       <c r="AZ211" s="1" t="s">
-        <v>2155</v>
+        <v>2154</v>
       </c>
       <c r="BB211" s="1">
         <v>7</v>
@@ -44071,10 +44061,10 @@
         <v>109</v>
       </c>
       <c r="BH211" s="1" t="s">
+        <v>2155</v>
+      </c>
+      <c r="BI211" s="1" t="s">
         <v>2156</v>
-      </c>
-      <c r="BI211" s="1" t="s">
-        <v>2157</v>
       </c>
       <c r="BM211" s="1" t="s">
         <v>112</v>
@@ -44086,13 +44076,13 @@
         <v>99</v>
       </c>
       <c r="BR211" s="1" t="s">
-        <v>2158</v>
+        <v>2157</v>
       </c>
       <c r="BS211" s="3">
         <v>36949</v>
       </c>
       <c r="BT211" s="1" t="s">
-        <v>2159</v>
+        <v>2158</v>
       </c>
       <c r="BU211" s="1" t="s">
         <v>116</v>
@@ -44116,13 +44106,13 @@
         <v>98</v>
       </c>
       <c r="CC211" s="1" t="s">
-        <v>2160</v>
+        <v>2159</v>
       </c>
       <c r="CD211" s="1" t="s">
         <v>1791</v>
       </c>
       <c r="CE211" s="1" t="s">
-        <v>2161</v>
+        <v>2160</v>
       </c>
     </row>
     <row r="212" spans="1:83" x14ac:dyDescent="0.25">
@@ -44157,13 +44147,13 @@
         <v>93</v>
       </c>
       <c r="K212" s="1" t="s">
+        <v>2161</v>
+      </c>
+      <c r="L212" s="1" t="s">
         <v>2162</v>
       </c>
-      <c r="L212" s="1" t="s">
+      <c r="N212" s="1" t="s">
         <v>2163</v>
-      </c>
-      <c r="N212" s="1" t="s">
-        <v>2164</v>
       </c>
       <c r="O212" s="1" t="s">
         <v>97</v>
@@ -44195,12 +44185,7 @@
       <c r="AB212" s="1" t="s">
         <v>1116</v>
       </c>
-      <c r="AC212" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD212" s="1" t="s">
-        <v>2145</v>
-      </c>
+      <c r="AC212" s="3"/>
       <c r="AF212" s="1" t="s">
         <v>103</v>
       </c>
@@ -44247,7 +44232,7 @@
         <v>98</v>
       </c>
       <c r="AZ212" s="1" t="s">
-        <v>2165</v>
+        <v>2164</v>
       </c>
       <c r="BB212" s="1">
         <v>7</v>
@@ -44262,10 +44247,10 @@
         <v>109</v>
       </c>
       <c r="BH212" s="1" t="s">
+        <v>2165</v>
+      </c>
+      <c r="BI212" s="1" t="s">
         <v>2166</v>
-      </c>
-      <c r="BI212" s="1" t="s">
-        <v>2167</v>
       </c>
       <c r="BM212" s="1" t="s">
         <v>112</v>
@@ -44277,13 +44262,13 @@
         <v>99</v>
       </c>
       <c r="BR212" s="1" t="s">
-        <v>2168</v>
+        <v>2167</v>
       </c>
       <c r="BS212" s="3">
         <v>36825</v>
       </c>
       <c r="BT212" s="1" t="s">
-        <v>2169</v>
+        <v>2168</v>
       </c>
       <c r="BU212" s="1" t="s">
         <v>116</v>
@@ -44307,13 +44292,13 @@
         <v>98</v>
       </c>
       <c r="CC212" s="1" t="s">
+        <v>2169</v>
+      </c>
+      <c r="CD212" s="1" t="s">
         <v>2170</v>
       </c>
-      <c r="CD212" s="1" t="s">
+      <c r="CE212" s="1" t="s">
         <v>2171</v>
-      </c>
-      <c r="CE212" s="1" t="s">
-        <v>2172</v>
       </c>
     </row>
     <row r="213" spans="1:83" x14ac:dyDescent="0.25">
@@ -44348,13 +44333,13 @@
         <v>93</v>
       </c>
       <c r="K213" s="1" t="s">
+        <v>2172</v>
+      </c>
+      <c r="L213" s="1" t="s">
         <v>2173</v>
       </c>
-      <c r="L213" s="1" t="s">
+      <c r="N213" s="1" t="s">
         <v>2174</v>
-      </c>
-      <c r="N213" s="1" t="s">
-        <v>2175</v>
       </c>
       <c r="O213" s="1" t="s">
         <v>97</v>
@@ -44383,12 +44368,7 @@
       <c r="AA213" s="1">
         <v>0</v>
       </c>
-      <c r="AC213" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD213" s="1" t="s">
-        <v>2145</v>
-      </c>
+      <c r="AC213" s="3"/>
       <c r="AF213" s="1" t="s">
         <v>103</v>
       </c>
@@ -44438,7 +44418,7 @@
         <v>98</v>
       </c>
       <c r="AZ213" s="1" t="s">
-        <v>2176</v>
+        <v>2175</v>
       </c>
       <c r="BB213" s="1">
         <v>7</v>
@@ -44450,7 +44430,7 @@
         <v>109</v>
       </c>
       <c r="BH213" s="1" t="s">
-        <v>2177</v>
+        <v>2176</v>
       </c>
       <c r="BI213" s="1" t="s">
         <v>180</v>
@@ -44462,7 +44442,7 @@
         <v>102</v>
       </c>
       <c r="BT213" s="1" t="s">
-        <v>2178</v>
+        <v>2177</v>
       </c>
       <c r="BU213" s="1" t="s">
         <v>116</v>
@@ -44480,13 +44460,13 @@
         <v>98</v>
       </c>
       <c r="CC213" s="1" t="s">
-        <v>2179</v>
+        <v>2178</v>
       </c>
       <c r="CD213" s="1" t="s">
         <v>1101</v>
       </c>
       <c r="CE213" s="1" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="214" spans="1:83" x14ac:dyDescent="0.25">
@@ -44521,13 +44501,13 @@
         <v>93</v>
       </c>
       <c r="K214" s="1" t="s">
+        <v>2180</v>
+      </c>
+      <c r="L214" s="1" t="s">
         <v>2181</v>
       </c>
-      <c r="L214" s="1" t="s">
+      <c r="N214" s="1" t="s">
         <v>2182</v>
-      </c>
-      <c r="N214" s="1" t="s">
-        <v>2183</v>
       </c>
       <c r="O214" s="1" t="s">
         <v>97</v>
@@ -44556,12 +44536,7 @@
       <c r="AA214" s="1">
         <v>0</v>
       </c>
-      <c r="AC214" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD214" s="1" t="s">
-        <v>2145</v>
-      </c>
+      <c r="AC214" s="3"/>
       <c r="AF214" s="1" t="s">
         <v>103</v>
       </c>
@@ -44611,7 +44586,7 @@
         <v>98</v>
       </c>
       <c r="AZ214" s="1" t="s">
-        <v>2184</v>
+        <v>2183</v>
       </c>
       <c r="BB214" s="1">
         <v>7</v>
@@ -44623,7 +44598,7 @@
         <v>109</v>
       </c>
       <c r="BH214" s="1" t="s">
-        <v>2185</v>
+        <v>2184</v>
       </c>
       <c r="BI214" s="1" t="s">
         <v>797</v>
@@ -44635,7 +44610,7 @@
         <v>102</v>
       </c>
       <c r="BT214" s="1" t="s">
-        <v>2186</v>
+        <v>2185</v>
       </c>
       <c r="BU214" s="1" t="s">
         <v>116</v>
@@ -44656,10 +44631,10 @@
         <v>634</v>
       </c>
       <c r="CD214" s="1" t="s">
+        <v>2186</v>
+      </c>
+      <c r="CE214" s="1" t="s">
         <v>2187</v>
-      </c>
-      <c r="CE214" s="1" t="s">
-        <v>2188</v>
       </c>
     </row>
     <row r="215" spans="1:83" x14ac:dyDescent="0.25">
@@ -44694,13 +44669,13 @@
         <v>93</v>
       </c>
       <c r="K215" s="1" t="s">
+        <v>2188</v>
+      </c>
+      <c r="L215" s="1" t="s">
         <v>2189</v>
       </c>
-      <c r="L215" s="1" t="s">
+      <c r="N215" s="1" t="s">
         <v>2190</v>
-      </c>
-      <c r="N215" s="1" t="s">
-        <v>2191</v>
       </c>
       <c r="O215" s="1" t="s">
         <v>97</v>
@@ -44729,12 +44704,7 @@
       <c r="AA215" s="1">
         <v>0</v>
       </c>
-      <c r="AC215" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD215" s="1" t="s">
-        <v>2145</v>
-      </c>
+      <c r="AC215" s="3"/>
       <c r="AF215" s="1" t="s">
         <v>103</v>
       </c>
@@ -44784,7 +44754,7 @@
         <v>98</v>
       </c>
       <c r="AZ215" s="1" t="s">
-        <v>2192</v>
+        <v>2191</v>
       </c>
       <c r="BB215" s="1">
         <v>7</v>
@@ -44796,10 +44766,10 @@
         <v>109</v>
       </c>
       <c r="BH215" s="1" t="s">
+        <v>2192</v>
+      </c>
+      <c r="BI215" s="1" t="s">
         <v>2193</v>
-      </c>
-      <c r="BI215" s="1" t="s">
-        <v>2194</v>
       </c>
       <c r="BM215" s="1" t="s">
         <v>112</v>
@@ -44808,7 +44778,7 @@
         <v>102</v>
       </c>
       <c r="BT215" s="1" t="s">
-        <v>2195</v>
+        <v>2194</v>
       </c>
       <c r="BU215" s="1" t="s">
         <v>116</v>
@@ -44826,13 +44796,13 @@
         <v>98</v>
       </c>
       <c r="CC215" s="1" t="s">
+        <v>2195</v>
+      </c>
+      <c r="CD215" s="1" t="s">
+        <v>2195</v>
+      </c>
+      <c r="CE215" s="1" t="s">
         <v>2196</v>
-      </c>
-      <c r="CD215" s="1" t="s">
-        <v>2196</v>
-      </c>
-      <c r="CE215" s="1" t="s">
-        <v>2197</v>
       </c>
     </row>
     <row r="216" spans="1:83" x14ac:dyDescent="0.25">
@@ -44867,13 +44837,13 @@
         <v>93</v>
       </c>
       <c r="K216" s="1" t="s">
+        <v>2197</v>
+      </c>
+      <c r="L216" s="1" t="s">
         <v>2198</v>
       </c>
-      <c r="L216" s="1" t="s">
+      <c r="N216" s="1" t="s">
         <v>2199</v>
-      </c>
-      <c r="N216" s="1" t="s">
-        <v>2200</v>
       </c>
       <c r="O216" s="1" t="s">
         <v>97</v>
@@ -44908,12 +44878,7 @@
       <c r="AA216" s="1">
         <v>0</v>
       </c>
-      <c r="AC216" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD216" s="1" t="s">
-        <v>2145</v>
-      </c>
+      <c r="AC216" s="3"/>
       <c r="AF216" s="1" t="s">
         <v>103</v>
       </c>
@@ -44960,7 +44925,7 @@
         <v>98</v>
       </c>
       <c r="AZ216" s="1" t="s">
-        <v>2201</v>
+        <v>2200</v>
       </c>
       <c r="BB216" s="1">
         <v>7</v>
@@ -44969,16 +44934,16 @@
         <v>16</v>
       </c>
       <c r="BD216" s="1" t="s">
-        <v>2202</v>
+        <v>2201</v>
       </c>
       <c r="BG216" s="1" t="s">
         <v>109</v>
       </c>
       <c r="BH216" s="1" t="s">
+        <v>2202</v>
+      </c>
+      <c r="BI216" s="1" t="s">
         <v>2203</v>
-      </c>
-      <c r="BI216" s="1" t="s">
-        <v>2204</v>
       </c>
       <c r="BM216" s="1" t="s">
         <v>112</v>
@@ -44990,13 +44955,13 @@
         <v>113</v>
       </c>
       <c r="BR216" s="1" t="s">
-        <v>2205</v>
+        <v>2204</v>
       </c>
       <c r="BS216" s="3">
         <v>35243</v>
       </c>
       <c r="BT216" s="1" t="s">
-        <v>2206</v>
+        <v>2205</v>
       </c>
       <c r="BU216" s="1" t="s">
         <v>116</v>
@@ -45014,13 +44979,13 @@
         <v>98</v>
       </c>
       <c r="CC216" s="1" t="s">
+        <v>2206</v>
+      </c>
+      <c r="CD216" s="1" t="s">
         <v>2207</v>
       </c>
-      <c r="CD216" s="1" t="s">
+      <c r="CE216" s="1" t="s">
         <v>2208</v>
-      </c>
-      <c r="CE216" s="1" t="s">
-        <v>2209</v>
       </c>
     </row>
     <row r="217" spans="1:83" x14ac:dyDescent="0.25">
@@ -45055,13 +45020,13 @@
         <v>93</v>
       </c>
       <c r="K217" s="1" t="s">
+        <v>2209</v>
+      </c>
+      <c r="L217" s="1" t="s">
         <v>2210</v>
       </c>
-      <c r="L217" s="1" t="s">
+      <c r="N217" s="1" t="s">
         <v>2211</v>
-      </c>
-      <c r="N217" s="1" t="s">
-        <v>2212</v>
       </c>
       <c r="O217" s="1" t="s">
         <v>97</v>
@@ -45090,12 +45055,7 @@
       <c r="AA217" s="1">
         <v>0</v>
       </c>
-      <c r="AC217" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD217" s="1" t="s">
-        <v>2145</v>
-      </c>
+      <c r="AC217" s="3"/>
       <c r="AF217" s="1" t="s">
         <v>103</v>
       </c>
@@ -45145,7 +45105,7 @@
         <v>98</v>
       </c>
       <c r="AZ217" s="1" t="s">
-        <v>2213</v>
+        <v>2212</v>
       </c>
       <c r="BB217" s="1">
         <v>7</v>
@@ -45157,10 +45117,10 @@
         <v>109</v>
       </c>
       <c r="BH217" s="1" t="s">
+        <v>2213</v>
+      </c>
+      <c r="BI217" s="1" t="s">
         <v>2214</v>
-      </c>
-      <c r="BI217" s="1" t="s">
-        <v>2215</v>
       </c>
       <c r="BM217" s="1" t="s">
         <v>112</v>
@@ -45169,7 +45129,7 @@
         <v>102</v>
       </c>
       <c r="BT217" s="1" t="s">
-        <v>2216</v>
+        <v>2215</v>
       </c>
       <c r="BU217" s="1" t="s">
         <v>116</v>
@@ -45187,13 +45147,13 @@
         <v>98</v>
       </c>
       <c r="CC217" s="1" t="s">
+        <v>2216</v>
+      </c>
+      <c r="CD217" s="1" t="s">
         <v>2217</v>
       </c>
-      <c r="CD217" s="1" t="s">
+      <c r="CE217" s="1" t="s">
         <v>2218</v>
-      </c>
-      <c r="CE217" s="1" t="s">
-        <v>2219</v>
       </c>
     </row>
     <row r="218" spans="1:83" x14ac:dyDescent="0.25">
@@ -45228,13 +45188,13 @@
         <v>93</v>
       </c>
       <c r="K218" s="1" t="s">
+        <v>2219</v>
+      </c>
+      <c r="L218" s="1" t="s">
         <v>2220</v>
       </c>
-      <c r="L218" s="1" t="s">
+      <c r="N218" s="1" t="s">
         <v>2221</v>
-      </c>
-      <c r="N218" s="1" t="s">
-        <v>2222</v>
       </c>
       <c r="O218" s="1" t="s">
         <v>97</v>
@@ -45263,12 +45223,7 @@
       <c r="AA218" s="1">
         <v>0</v>
       </c>
-      <c r="AC218" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD218" s="1" t="s">
-        <v>2145</v>
-      </c>
+      <c r="AC218" s="3"/>
       <c r="AF218" s="1" t="s">
         <v>103</v>
       </c>
@@ -45318,7 +45273,7 @@
         <v>98</v>
       </c>
       <c r="AZ218" s="1" t="s">
-        <v>2223</v>
+        <v>2222</v>
       </c>
       <c r="BB218" s="1">
         <v>7</v>
@@ -45330,10 +45285,10 @@
         <v>109</v>
       </c>
       <c r="BH218" s="1" t="s">
+        <v>2223</v>
+      </c>
+      <c r="BI218" s="1" t="s">
         <v>2224</v>
-      </c>
-      <c r="BI218" s="1" t="s">
-        <v>2225</v>
       </c>
       <c r="BM218" s="1" t="s">
         <v>112</v>
@@ -45345,7 +45300,7 @@
         <v>153</v>
       </c>
       <c r="BT218" s="1" t="s">
-        <v>2226</v>
+        <v>2225</v>
       </c>
       <c r="BU218" s="1" t="s">
         <v>116</v>
@@ -45363,13 +45318,13 @@
         <v>98</v>
       </c>
       <c r="CC218" s="1" t="s">
+        <v>2226</v>
+      </c>
+      <c r="CD218" s="1" t="s">
         <v>2227</v>
       </c>
-      <c r="CD218" s="1" t="s">
+      <c r="CE218" s="1" t="s">
         <v>2228</v>
-      </c>
-      <c r="CE218" s="1" t="s">
-        <v>2229</v>
       </c>
     </row>
     <row r="219" spans="1:83" x14ac:dyDescent="0.25">
@@ -45404,13 +45359,13 @@
         <v>93</v>
       </c>
       <c r="K219" s="1" t="s">
+        <v>2229</v>
+      </c>
+      <c r="L219" s="1" t="s">
         <v>2230</v>
       </c>
-      <c r="L219" s="1" t="s">
+      <c r="N219" s="1" t="s">
         <v>2231</v>
-      </c>
-      <c r="N219" s="1" t="s">
-        <v>2232</v>
       </c>
       <c r="O219" s="1" t="s">
         <v>97</v>
@@ -45439,12 +45394,7 @@
       <c r="AA219" s="1">
         <v>0</v>
       </c>
-      <c r="AC219" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD219" s="1" t="s">
-        <v>2145</v>
-      </c>
+      <c r="AC219" s="3"/>
       <c r="AF219" s="1" t="s">
         <v>103</v>
       </c>
@@ -45491,7 +45441,7 @@
         <v>98</v>
       </c>
       <c r="AZ219" s="1" t="s">
-        <v>2233</v>
+        <v>2232</v>
       </c>
       <c r="BB219" s="1">
         <v>7</v>
@@ -45500,16 +45450,16 @@
         <v>16</v>
       </c>
       <c r="BD219" s="1" t="s">
-        <v>2234</v>
+        <v>2233</v>
       </c>
       <c r="BG219" s="1" t="s">
         <v>109</v>
       </c>
       <c r="BH219" s="1" t="s">
+        <v>2234</v>
+      </c>
+      <c r="BI219" s="1" t="s">
         <v>2235</v>
-      </c>
-      <c r="BI219" s="1" t="s">
-        <v>2236</v>
       </c>
       <c r="BM219" s="1" t="s">
         <v>112</v>
@@ -45521,13 +45471,13 @@
         <v>205</v>
       </c>
       <c r="BR219" s="1" t="s">
-        <v>2237</v>
+        <v>2236</v>
       </c>
       <c r="BS219" s="3">
         <v>34307</v>
       </c>
       <c r="BT219" s="1" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="BU219" s="1" t="s">
         <v>116</v>
@@ -45545,13 +45495,13 @@
         <v>98</v>
       </c>
       <c r="CC219" s="1" t="s">
-        <v>2239</v>
+        <v>2238</v>
       </c>
       <c r="CD219" s="1" t="s">
         <v>420</v>
       </c>
       <c r="CE219" s="1" t="s">
-        <v>2240</v>
+        <v>2239</v>
       </c>
     </row>
     <row r="220" spans="1:83" x14ac:dyDescent="0.25">
@@ -45586,13 +45536,13 @@
         <v>93</v>
       </c>
       <c r="K220" s="1" t="s">
+        <v>2240</v>
+      </c>
+      <c r="L220" s="1" t="s">
         <v>2241</v>
       </c>
-      <c r="L220" s="1" t="s">
+      <c r="N220" s="1" t="s">
         <v>2242</v>
-      </c>
-      <c r="N220" s="1" t="s">
-        <v>2243</v>
       </c>
       <c r="O220" s="1" t="s">
         <v>97</v>
@@ -45624,12 +45574,7 @@
       <c r="AA220" s="1">
         <v>0</v>
       </c>
-      <c r="AC220" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD220" s="1" t="s">
-        <v>2145</v>
-      </c>
+      <c r="AC220" s="3"/>
       <c r="AF220" s="1" t="s">
         <v>103</v>
       </c>
@@ -45679,7 +45624,7 @@
         <v>98</v>
       </c>
       <c r="AZ220" s="1" t="s">
-        <v>2244</v>
+        <v>2243</v>
       </c>
       <c r="BB220" s="1">
         <v>7</v>
@@ -45694,7 +45639,7 @@
         <v>109</v>
       </c>
       <c r="BH220" s="1" t="s">
-        <v>2245</v>
+        <v>2244</v>
       </c>
       <c r="BI220" s="1" t="s">
         <v>180</v>
@@ -45706,7 +45651,7 @@
         <v>102</v>
       </c>
       <c r="BT220" s="1" t="s">
-        <v>2246</v>
+        <v>2245</v>
       </c>
       <c r="BU220" s="1" t="s">
         <v>116</v>
@@ -45727,13 +45672,13 @@
         <v>98</v>
       </c>
       <c r="CC220" s="1" t="s">
+        <v>2246</v>
+      </c>
+      <c r="CD220" s="1" t="s">
         <v>2247</v>
       </c>
-      <c r="CD220" s="1" t="s">
+      <c r="CE220" s="1" t="s">
         <v>2248</v>
-      </c>
-      <c r="CE220" s="1" t="s">
-        <v>2249</v>
       </c>
     </row>
     <row r="221" spans="1:83" x14ac:dyDescent="0.25">
@@ -45768,13 +45713,13 @@
         <v>93</v>
       </c>
       <c r="K221" s="1" t="s">
+        <v>2249</v>
+      </c>
+      <c r="L221" s="1" t="s">
         <v>2250</v>
       </c>
-      <c r="L221" s="1" t="s">
+      <c r="N221" s="1" t="s">
         <v>2251</v>
-      </c>
-      <c r="N221" s="1" t="s">
-        <v>2252</v>
       </c>
       <c r="O221" s="1" t="s">
         <v>97</v>
@@ -45803,12 +45748,7 @@
       <c r="AA221" s="1">
         <v>0</v>
       </c>
-      <c r="AC221" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD221" s="1" t="s">
-        <v>2145</v>
-      </c>
+      <c r="AC221" s="3"/>
       <c r="AF221" s="1" t="s">
         <v>103</v>
       </c>
@@ -45855,7 +45795,7 @@
         <v>98</v>
       </c>
       <c r="AZ221" s="1" t="s">
-        <v>2253</v>
+        <v>2252</v>
       </c>
       <c r="BB221" s="1">
         <v>7</v>
@@ -45870,10 +45810,10 @@
         <v>109</v>
       </c>
       <c r="BH221" s="1" t="s">
+        <v>2253</v>
+      </c>
+      <c r="BI221" s="1" t="s">
         <v>2254</v>
-      </c>
-      <c r="BI221" s="1" t="s">
-        <v>2255</v>
       </c>
       <c r="BM221" s="1" t="s">
         <v>112</v>
@@ -45885,13 +45825,13 @@
         <v>113</v>
       </c>
       <c r="BR221" s="1" t="s">
-        <v>2256</v>
+        <v>2255</v>
       </c>
       <c r="BS221" s="3">
         <v>35950</v>
       </c>
       <c r="BT221" s="1" t="s">
-        <v>2257</v>
+        <v>2256</v>
       </c>
       <c r="BU221" s="1" t="s">
         <v>116</v>
@@ -45909,13 +45849,13 @@
         <v>98</v>
       </c>
       <c r="CC221" s="1" t="s">
-        <v>2258</v>
+        <v>2257</v>
       </c>
       <c r="CD221" s="1" t="s">
         <v>1625</v>
       </c>
       <c r="CE221" s="1" t="s">
-        <v>2259</v>
+        <v>2258</v>
       </c>
     </row>
     <row r="222" spans="1:83" x14ac:dyDescent="0.25">
@@ -45950,13 +45890,13 @@
         <v>142</v>
       </c>
       <c r="K222" s="1" t="s">
+        <v>2259</v>
+      </c>
+      <c r="L222" s="1" t="s">
         <v>2260</v>
       </c>
-      <c r="L222" s="1" t="s">
+      <c r="N222" s="1" t="s">
         <v>2261</v>
-      </c>
-      <c r="N222" s="1" t="s">
-        <v>2262</v>
       </c>
       <c r="O222" s="1" t="s">
         <v>97</v>
@@ -46007,7 +45947,7 @@
         <v>0</v>
       </c>
       <c r="AN222" s="1" t="s">
-        <v>2263</v>
+        <v>2262</v>
       </c>
       <c r="AO222" s="1">
         <v>0</v>
@@ -46046,13 +45986,13 @@
         <v>109</v>
       </c>
       <c r="BH222" s="1" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="BM222" s="1" t="s">
         <v>112</v>
       </c>
       <c r="BT222" s="1" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
       <c r="BU222" s="1" t="s">
         <v>116</v>
@@ -46076,10 +46016,10 @@
         <v>2047</v>
       </c>
       <c r="CD222" s="1" t="s">
+        <v>2265</v>
+      </c>
+      <c r="CE222" s="1" t="s">
         <v>2266</v>
-      </c>
-      <c r="CE222" s="1" t="s">
-        <v>2267</v>
       </c>
     </row>
     <row r="223" spans="1:83" x14ac:dyDescent="0.25">
@@ -46114,13 +46054,13 @@
         <v>142</v>
       </c>
       <c r="K223" s="1" t="s">
+        <v>2267</v>
+      </c>
+      <c r="L223" s="1" t="s">
         <v>2268</v>
       </c>
-      <c r="L223" s="1" t="s">
+      <c r="N223" s="1" t="s">
         <v>2269</v>
-      </c>
-      <c r="N223" s="1" t="s">
-        <v>2270</v>
       </c>
       <c r="O223" s="1" t="s">
         <v>97</v>
@@ -46174,7 +46114,7 @@
         <v>0</v>
       </c>
       <c r="AN223" s="1" t="s">
-        <v>2162</v>
+        <v>2161</v>
       </c>
       <c r="AO223" s="1">
         <v>0</v>
@@ -46213,13 +46153,13 @@
         <v>109</v>
       </c>
       <c r="BH223" s="1" t="s">
-        <v>2271</v>
+        <v>2270</v>
       </c>
       <c r="BM223" s="1" t="s">
         <v>112</v>
       </c>
       <c r="BT223" s="1" t="s">
-        <v>2272</v>
+        <v>2271</v>
       </c>
       <c r="BU223" s="1" t="s">
         <v>116</v>
@@ -46240,13 +46180,13 @@
         <v>98</v>
       </c>
       <c r="CC223" s="1" t="s">
+        <v>2272</v>
+      </c>
+      <c r="CD223" s="1" t="s">
         <v>2273</v>
       </c>
-      <c r="CD223" s="1" t="s">
+      <c r="CE223" s="1" t="s">
         <v>2274</v>
-      </c>
-      <c r="CE223" s="1" t="s">
-        <v>2275</v>
       </c>
     </row>
     <row r="224" spans="1:83" x14ac:dyDescent="0.25">
@@ -46281,13 +46221,13 @@
         <v>142</v>
       </c>
       <c r="K224" s="1" t="s">
+        <v>2275</v>
+      </c>
+      <c r="L224" s="1" t="s">
         <v>2276</v>
       </c>
-      <c r="L224" s="1" t="s">
+      <c r="N224" s="1" t="s">
         <v>2277</v>
-      </c>
-      <c r="N224" s="1" t="s">
-        <v>2278</v>
       </c>
       <c r="O224" s="1" t="s">
         <v>97</v>
@@ -46341,7 +46281,7 @@
         <v>0</v>
       </c>
       <c r="AN224" s="1" t="s">
-        <v>2162</v>
+        <v>2161</v>
       </c>
       <c r="AO224" s="1">
         <v>0</v>
@@ -46380,13 +46320,13 @@
         <v>109</v>
       </c>
       <c r="BH224" s="1" t="s">
-        <v>2279</v>
+        <v>2278</v>
       </c>
       <c r="BM224" s="1" t="s">
         <v>112</v>
       </c>
       <c r="BT224" s="1" t="s">
-        <v>2280</v>
+        <v>2279</v>
       </c>
       <c r="BU224" s="1" t="s">
         <v>116</v>
@@ -46407,13 +46347,13 @@
         <v>98</v>
       </c>
       <c r="CC224" s="1" t="s">
+        <v>2280</v>
+      </c>
+      <c r="CD224" s="1" t="s">
         <v>2281</v>
       </c>
-      <c r="CD224" s="1" t="s">
+      <c r="CE224" s="1" t="s">
         <v>2282</v>
-      </c>
-      <c r="CE224" s="1" t="s">
-        <v>2283</v>
       </c>
     </row>
     <row r="225" spans="1:83" x14ac:dyDescent="0.25">
@@ -46448,13 +46388,13 @@
         <v>142</v>
       </c>
       <c r="K225" s="1" t="s">
+        <v>2283</v>
+      </c>
+      <c r="L225" s="1" t="s">
         <v>2284</v>
       </c>
-      <c r="L225" s="1" t="s">
+      <c r="N225" s="1" t="s">
         <v>2285</v>
-      </c>
-      <c r="N225" s="1" t="s">
-        <v>2286</v>
       </c>
       <c r="O225" s="1" t="s">
         <v>97</v>
@@ -46544,13 +46484,13 @@
         <v>109</v>
       </c>
       <c r="BH225" s="1" t="s">
-        <v>2287</v>
+        <v>2286</v>
       </c>
       <c r="BM225" s="1" t="s">
         <v>112</v>
       </c>
       <c r="BT225" s="1" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="BU225" s="1" t="s">
         <v>116</v>
@@ -46571,10 +46511,10 @@
         <v>98</v>
       </c>
       <c r="CC225" s="1" t="s">
-        <v>2150</v>
+        <v>2149</v>
       </c>
       <c r="CD225" s="1" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
       <c r="CE225" s="1" t="s">
         <v>197</v>
@@ -46612,13 +46552,13 @@
         <v>142</v>
       </c>
       <c r="K226" s="1" t="s">
+        <v>2289</v>
+      </c>
+      <c r="L226" s="1" t="s">
         <v>2290</v>
       </c>
-      <c r="L226" s="1" t="s">
+      <c r="N226" s="1" t="s">
         <v>2291</v>
-      </c>
-      <c r="N226" s="1" t="s">
-        <v>2292</v>
       </c>
       <c r="O226" s="1" t="s">
         <v>97</v>
@@ -46672,7 +46612,7 @@
         <v>0</v>
       </c>
       <c r="AN226" s="1" t="s">
-        <v>2162</v>
+        <v>2161</v>
       </c>
       <c r="AO226" s="1">
         <v>0</v>
@@ -46711,13 +46651,13 @@
         <v>109</v>
       </c>
       <c r="BH226" s="1" t="s">
-        <v>2293</v>
+        <v>2292</v>
       </c>
       <c r="BM226" s="1" t="s">
         <v>112</v>
       </c>
       <c r="BT226" s="1" t="s">
-        <v>2294</v>
+        <v>2293</v>
       </c>
       <c r="BU226" s="1" t="s">
         <v>116</v>
@@ -46741,13 +46681,13 @@
         <v>98</v>
       </c>
       <c r="CC226" s="1" t="s">
-        <v>2295</v>
+        <v>2294</v>
       </c>
       <c r="CD226" s="1" t="s">
         <v>1124</v>
       </c>
       <c r="CE226" s="1" t="s">
-        <v>2296</v>
+        <v>2295</v>
       </c>
     </row>
     <row r="227" spans="1:83" x14ac:dyDescent="0.25">
@@ -46782,13 +46722,13 @@
         <v>142</v>
       </c>
       <c r="K227" s="1" t="s">
+        <v>2296</v>
+      </c>
+      <c r="L227" s="1" t="s">
         <v>2297</v>
       </c>
-      <c r="L227" s="1" t="s">
+      <c r="N227" s="1" t="s">
         <v>2298</v>
-      </c>
-      <c r="N227" s="1" t="s">
-        <v>2299</v>
       </c>
       <c r="O227" s="1" t="s">
         <v>97</v>
@@ -46839,7 +46779,7 @@
         <v>0</v>
       </c>
       <c r="AN227" s="1" t="s">
-        <v>2300</v>
+        <v>2299</v>
       </c>
       <c r="AO227" s="1">
         <v>0</v>
@@ -46878,13 +46818,13 @@
         <v>109</v>
       </c>
       <c r="BH227" s="1" t="s">
-        <v>2301</v>
+        <v>2300</v>
       </c>
       <c r="BM227" s="1" t="s">
         <v>112</v>
       </c>
       <c r="BT227" s="1" t="s">
-        <v>2302</v>
+        <v>2301</v>
       </c>
       <c r="BU227" s="1" t="s">
         <v>116</v>
@@ -46905,13 +46845,13 @@
         <v>98</v>
       </c>
       <c r="CC227" s="1" t="s">
+        <v>2302</v>
+      </c>
+      <c r="CD227" s="1" t="s">
+        <v>2217</v>
+      </c>
+      <c r="CE227" s="1" t="s">
         <v>2303</v>
-      </c>
-      <c r="CD227" s="1" t="s">
-        <v>2218</v>
-      </c>
-      <c r="CE227" s="1" t="s">
-        <v>2304</v>
       </c>
     </row>
     <row r="228" spans="1:83" x14ac:dyDescent="0.25">
@@ -46946,10 +46886,10 @@
         <v>93</v>
       </c>
       <c r="K228" s="1" t="s">
+        <v>2304</v>
+      </c>
+      <c r="L228" s="1" t="s">
         <v>2305</v>
-      </c>
-      <c r="L228" s="1" t="s">
-        <v>2306</v>
       </c>
       <c r="O228" s="1" t="s">
         <v>97</v>
@@ -47033,7 +46973,7 @@
         <v>374</v>
       </c>
       <c r="CE228" s="1" t="s">
-        <v>2306</v>
+        <v>2305</v>
       </c>
     </row>
     <row r="229" spans="1:83" x14ac:dyDescent="0.25">
@@ -47068,13 +47008,13 @@
         <v>93</v>
       </c>
       <c r="K229" s="1" t="s">
+        <v>2306</v>
+      </c>
+      <c r="L229" s="1" t="s">
         <v>2307</v>
       </c>
-      <c r="L229" s="1" t="s">
+      <c r="N229" s="1" t="s">
         <v>2308</v>
-      </c>
-      <c r="N229" s="1" t="s">
-        <v>2309</v>
       </c>
       <c r="O229" s="1" t="s">
         <v>97</v>
@@ -47161,13 +47101,13 @@
         <v>109</v>
       </c>
       <c r="BH229" s="1" t="s">
+        <v>2309</v>
+      </c>
+      <c r="BI229" s="1" t="s">
         <v>2310</v>
       </c>
-      <c r="BI229" s="1" t="s">
+      <c r="BJ229" s="1" t="s">
         <v>2311</v>
-      </c>
-      <c r="BJ229" s="1" t="s">
-        <v>2312</v>
       </c>
       <c r="BM229" s="1" t="s">
         <v>112</v>
@@ -47182,7 +47122,7 @@
         <v>35679</v>
       </c>
       <c r="BT229" s="1" t="s">
-        <v>2313</v>
+        <v>2312</v>
       </c>
       <c r="BU229" s="1" t="s">
         <v>116</v>
@@ -47200,7 +47140,7 @@
         <v>89</v>
       </c>
       <c r="CC229" s="1" t="s">
-        <v>2314</v>
+        <v>2313</v>
       </c>
       <c r="CD229" s="1" t="s">
         <v>262</v>
@@ -47241,13 +47181,13 @@
         <v>93</v>
       </c>
       <c r="K230" s="1" t="s">
+        <v>2314</v>
+      </c>
+      <c r="L230" s="1" t="s">
         <v>2315</v>
       </c>
-      <c r="L230" s="1" t="s">
+      <c r="N230" s="1" t="s">
         <v>2316</v>
-      </c>
-      <c r="N230" s="1" t="s">
-        <v>2317</v>
       </c>
       <c r="O230" s="1" t="s">
         <v>97</v>
@@ -47328,7 +47268,7 @@
         <v>98</v>
       </c>
       <c r="AZ230" s="1" t="s">
-        <v>2318</v>
+        <v>2317</v>
       </c>
       <c r="BB230" s="1">
         <v>7</v>
@@ -47340,10 +47280,10 @@
         <v>109</v>
       </c>
       <c r="BH230" s="1" t="s">
+        <v>2318</v>
+      </c>
+      <c r="BI230" s="1" t="s">
         <v>2319</v>
-      </c>
-      <c r="BI230" s="1" t="s">
-        <v>2320</v>
       </c>
       <c r="BM230" s="1" t="s">
         <v>112</v>
@@ -47355,7 +47295,7 @@
         <v>153</v>
       </c>
       <c r="BT230" s="1" t="s">
-        <v>2321</v>
+        <v>2320</v>
       </c>
       <c r="BU230" s="1" t="s">
         <v>116</v>
@@ -47373,13 +47313,13 @@
         <v>98</v>
       </c>
       <c r="CC230" s="1" t="s">
-        <v>2322</v>
+        <v>2321</v>
       </c>
       <c r="CD230" s="1" t="s">
         <v>420</v>
       </c>
       <c r="CE230" s="1" t="s">
-        <v>2323</v>
+        <v>2322</v>
       </c>
     </row>
     <row r="231" spans="1:83" x14ac:dyDescent="0.25">
@@ -47414,13 +47354,13 @@
         <v>93</v>
       </c>
       <c r="K231" s="1" t="s">
+        <v>2323</v>
+      </c>
+      <c r="L231" s="1" t="s">
         <v>2324</v>
       </c>
-      <c r="L231" s="1" t="s">
+      <c r="N231" s="1" t="s">
         <v>2325</v>
-      </c>
-      <c r="N231" s="1" t="s">
-        <v>2326</v>
       </c>
       <c r="O231" s="1" t="s">
         <v>97</v>
@@ -47498,7 +47438,7 @@
         <v>98</v>
       </c>
       <c r="AZ231" s="1" t="s">
-        <v>2327</v>
+        <v>2326</v>
       </c>
       <c r="BB231" s="1">
         <v>7</v>
@@ -47510,10 +47450,10 @@
         <v>109</v>
       </c>
       <c r="BH231" s="1" t="s">
+        <v>2327</v>
+      </c>
+      <c r="BI231" s="1" t="s">
         <v>2328</v>
-      </c>
-      <c r="BI231" s="1" t="s">
-        <v>2329</v>
       </c>
       <c r="BM231" s="1" t="s">
         <v>112</v>
@@ -47525,13 +47465,13 @@
         <v>205</v>
       </c>
       <c r="BR231" s="1" t="s">
-        <v>2330</v>
+        <v>2329</v>
       </c>
       <c r="BS231" s="3">
         <v>36099</v>
       </c>
       <c r="BT231" s="1" t="s">
-        <v>2331</v>
+        <v>2330</v>
       </c>
       <c r="BU231" s="1" t="s">
         <v>116</v>
@@ -47549,13 +47489,13 @@
         <v>98</v>
       </c>
       <c r="CC231" s="1" t="s">
+        <v>2331</v>
+      </c>
+      <c r="CD231" s="1" t="s">
         <v>2332</v>
       </c>
-      <c r="CD231" s="1" t="s">
+      <c r="CE231" s="1" t="s">
         <v>2333</v>
-      </c>
-      <c r="CE231" s="1" t="s">
-        <v>2334</v>
       </c>
     </row>
     <row r="232" spans="1:83" x14ac:dyDescent="0.25">
@@ -47590,13 +47530,13 @@
         <v>93</v>
       </c>
       <c r="K232" s="1" t="s">
+        <v>2334</v>
+      </c>
+      <c r="L232" s="1" t="s">
         <v>2335</v>
       </c>
-      <c r="L232" s="1" t="s">
+      <c r="N232" s="1" t="s">
         <v>2336</v>
-      </c>
-      <c r="N232" s="1" t="s">
-        <v>2337</v>
       </c>
       <c r="O232" s="1" t="s">
         <v>97</v>
@@ -47674,7 +47614,7 @@
         <v>98</v>
       </c>
       <c r="AZ232" s="1" t="s">
-        <v>2338</v>
+        <v>2337</v>
       </c>
       <c r="BB232" s="1">
         <v>7</v>
@@ -47686,7 +47626,7 @@
         <v>109</v>
       </c>
       <c r="BH232" s="1" t="s">
-        <v>2339</v>
+        <v>2338</v>
       </c>
       <c r="BI232" s="1" t="s">
         <v>1710</v>
@@ -47701,13 +47641,13 @@
         <v>99</v>
       </c>
       <c r="BR232" s="1" t="s">
-        <v>2340</v>
+        <v>2339</v>
       </c>
       <c r="BS232" s="3">
         <v>37735</v>
       </c>
       <c r="BT232" s="1" t="s">
-        <v>2341</v>
+        <v>2340</v>
       </c>
       <c r="BU232" s="1" t="s">
         <v>116</v>
@@ -47725,13 +47665,13 @@
         <v>98</v>
       </c>
       <c r="CC232" s="1" t="s">
+        <v>2341</v>
+      </c>
+      <c r="CD232" s="1" t="s">
         <v>2342</v>
       </c>
-      <c r="CD232" s="1" t="s">
+      <c r="CE232" s="1" t="s">
         <v>2343</v>
-      </c>
-      <c r="CE232" s="1" t="s">
-        <v>2344</v>
       </c>
     </row>
     <row r="233" spans="1:83" x14ac:dyDescent="0.25">
@@ -47766,13 +47706,13 @@
         <v>93</v>
       </c>
       <c r="K233" s="1" t="s">
+        <v>2344</v>
+      </c>
+      <c r="L233" s="1" t="s">
         <v>2345</v>
       </c>
-      <c r="L233" s="1" t="s">
+      <c r="N233" s="1" t="s">
         <v>2346</v>
-      </c>
-      <c r="N233" s="1" t="s">
-        <v>2347</v>
       </c>
       <c r="O233" s="1" t="s">
         <v>97</v>
@@ -47853,7 +47793,7 @@
         <v>98</v>
       </c>
       <c r="AZ233" s="1" t="s">
-        <v>2348</v>
+        <v>2347</v>
       </c>
       <c r="BB233" s="1">
         <v>7</v>
@@ -47865,7 +47805,7 @@
         <v>109</v>
       </c>
       <c r="BH233" s="1" t="s">
-        <v>2349</v>
+        <v>2348</v>
       </c>
       <c r="BM233" s="1" t="s">
         <v>112</v>
@@ -47874,7 +47814,7 @@
         <v>102</v>
       </c>
       <c r="BT233" s="1" t="s">
-        <v>2350</v>
+        <v>2349</v>
       </c>
       <c r="BU233" s="1" t="s">
         <v>116</v>
@@ -47892,13 +47832,13 @@
         <v>98</v>
       </c>
       <c r="CC233" s="1" t="s">
-        <v>2351</v>
+        <v>2350</v>
       </c>
       <c r="CD233" s="1" t="s">
         <v>799</v>
       </c>
       <c r="CE233" s="1" t="s">
-        <v>2352</v>
+        <v>2351</v>
       </c>
     </row>
     <row r="234" spans="1:83" x14ac:dyDescent="0.25">
@@ -47933,13 +47873,13 @@
         <v>93</v>
       </c>
       <c r="K234" s="1" t="s">
+        <v>2352</v>
+      </c>
+      <c r="L234" s="1" t="s">
         <v>2353</v>
       </c>
-      <c r="L234" s="1" t="s">
+      <c r="N234" s="1" t="s">
         <v>2354</v>
-      </c>
-      <c r="N234" s="1" t="s">
-        <v>2355</v>
       </c>
       <c r="O234" s="1" t="s">
         <v>97</v>
@@ -47975,7 +47915,7 @@
         <v>103</v>
       </c>
       <c r="AG234" s="1" t="s">
-        <v>2356</v>
+        <v>2355</v>
       </c>
       <c r="AH234" s="1" t="s">
         <v>1730</v>
@@ -48020,7 +47960,7 @@
         <v>98</v>
       </c>
       <c r="AZ234" s="1" t="s">
-        <v>2357</v>
+        <v>2356</v>
       </c>
       <c r="BB234" s="1">
         <v>7</v>
@@ -48032,7 +47972,7 @@
         <v>109</v>
       </c>
       <c r="BH234" s="1" t="s">
-        <v>2358</v>
+        <v>2357</v>
       </c>
       <c r="BM234" s="1" t="s">
         <v>112</v>
@@ -48041,7 +47981,7 @@
         <v>102</v>
       </c>
       <c r="BT234" s="1" t="s">
-        <v>2359</v>
+        <v>2358</v>
       </c>
       <c r="BU234" s="1" t="s">
         <v>116</v>
@@ -48062,10 +48002,10 @@
         <v>1439</v>
       </c>
       <c r="CD234" s="1" t="s">
+        <v>2359</v>
+      </c>
+      <c r="CE234" s="1" t="s">
         <v>2360</v>
-      </c>
-      <c r="CE234" s="1" t="s">
-        <v>2361</v>
       </c>
     </row>
     <row r="235" spans="1:83" x14ac:dyDescent="0.25">
@@ -48100,13 +48040,13 @@
         <v>93</v>
       </c>
       <c r="K235" s="1" t="s">
+        <v>2361</v>
+      </c>
+      <c r="L235" s="1" t="s">
         <v>2362</v>
       </c>
-      <c r="L235" s="1" t="s">
+      <c r="N235" s="1" t="s">
         <v>2363</v>
-      </c>
-      <c r="N235" s="1" t="s">
-        <v>2364</v>
       </c>
       <c r="O235" s="1" t="s">
         <v>97</v>
@@ -48187,7 +48127,7 @@
         <v>98</v>
       </c>
       <c r="AZ235" s="1" t="s">
-        <v>2365</v>
+        <v>2364</v>
       </c>
       <c r="BB235" s="1">
         <v>7</v>
@@ -48199,10 +48139,10 @@
         <v>109</v>
       </c>
       <c r="BH235" s="1" t="s">
+        <v>2365</v>
+      </c>
+      <c r="BI235" s="1" t="s">
         <v>2366</v>
-      </c>
-      <c r="BI235" s="1" t="s">
-        <v>2367</v>
       </c>
       <c r="BM235" s="1" t="s">
         <v>112</v>
@@ -48211,7 +48151,7 @@
         <v>102</v>
       </c>
       <c r="BT235" s="1" t="s">
-        <v>2368</v>
+        <v>2367</v>
       </c>
       <c r="BU235" s="1" t="s">
         <v>116</v>
@@ -48235,7 +48175,7 @@
         <v>865</v>
       </c>
       <c r="CE235" s="1" t="s">
-        <v>2369</v>
+        <v>2368</v>
       </c>
     </row>
     <row r="236" spans="1:83" x14ac:dyDescent="0.25">
@@ -48270,13 +48210,13 @@
         <v>93</v>
       </c>
       <c r="K236" s="1" t="s">
+        <v>2369</v>
+      </c>
+      <c r="L236" s="1" t="s">
         <v>2370</v>
       </c>
-      <c r="L236" s="1" t="s">
+      <c r="N236" s="1" t="s">
         <v>2371</v>
-      </c>
-      <c r="N236" s="1" t="s">
-        <v>2372</v>
       </c>
       <c r="O236" s="1" t="s">
         <v>97</v>
@@ -48315,7 +48255,7 @@
         <v>610</v>
       </c>
       <c r="AH236" s="1" t="s">
-        <v>2373</v>
+        <v>2372</v>
       </c>
       <c r="AI236" s="1" t="s">
         <v>98</v>
@@ -48357,7 +48297,7 @@
         <v>98</v>
       </c>
       <c r="AZ236" s="1" t="s">
-        <v>2374</v>
+        <v>2373</v>
       </c>
       <c r="BB236" s="1">
         <v>7</v>
@@ -48369,7 +48309,7 @@
         <v>109</v>
       </c>
       <c r="BH236" s="1" t="s">
-        <v>2375</v>
+        <v>2374</v>
       </c>
       <c r="BM236" s="1" t="s">
         <v>112</v>
@@ -48378,7 +48318,7 @@
         <v>102</v>
       </c>
       <c r="BT236" s="1" t="s">
-        <v>2376</v>
+        <v>2375</v>
       </c>
       <c r="BU236" s="1" t="s">
         <v>116</v>
@@ -48396,13 +48336,13 @@
         <v>98</v>
       </c>
       <c r="CC236" s="1" t="s">
+        <v>2376</v>
+      </c>
+      <c r="CD236" s="1" t="s">
         <v>2377</v>
       </c>
-      <c r="CD236" s="1" t="s">
+      <c r="CE236" s="1" t="s">
         <v>2378</v>
-      </c>
-      <c r="CE236" s="1" t="s">
-        <v>2379</v>
       </c>
     </row>
     <row r="237" spans="1:83" x14ac:dyDescent="0.25">
@@ -48437,13 +48377,13 @@
         <v>142</v>
       </c>
       <c r="K237" s="1" t="s">
+        <v>2379</v>
+      </c>
+      <c r="L237" s="1" t="s">
         <v>2380</v>
       </c>
-      <c r="L237" s="1" t="s">
+      <c r="N237" s="1" t="s">
         <v>2381</v>
-      </c>
-      <c r="N237" s="1" t="s">
-        <v>2382</v>
       </c>
       <c r="O237" s="1" t="s">
         <v>97</v>
@@ -48485,7 +48425,7 @@
         <v>0</v>
       </c>
       <c r="AN237" s="1" t="s">
-        <v>2383</v>
+        <v>2382</v>
       </c>
       <c r="AO237" s="1">
         <v>0</v>
@@ -48518,13 +48458,13 @@
         <v>109</v>
       </c>
       <c r="BH237" s="1" t="s">
-        <v>2384</v>
+        <v>2383</v>
       </c>
       <c r="BM237" s="1" t="s">
         <v>112</v>
       </c>
       <c r="BT237" s="1" t="s">
-        <v>2385</v>
+        <v>2384</v>
       </c>
       <c r="BU237" s="1" t="s">
         <v>116</v>
@@ -48542,13 +48482,13 @@
         <v>98</v>
       </c>
       <c r="CC237" s="1" t="s">
-        <v>2386</v>
+        <v>2385</v>
       </c>
       <c r="CD237" s="1" t="s">
         <v>303</v>
       </c>
       <c r="CE237" s="1" t="s">
-        <v>2387</v>
+        <v>2386</v>
       </c>
     </row>
     <row r="238" spans="1:83" x14ac:dyDescent="0.25">
@@ -48583,16 +48523,16 @@
         <v>93</v>
       </c>
       <c r="K238" s="1" t="s">
+        <v>2387</v>
+      </c>
+      <c r="L238" s="1" t="s">
         <v>2388</v>
       </c>
-      <c r="L238" s="1" t="s">
+      <c r="M238" s="1" t="s">
         <v>2389</v>
       </c>
-      <c r="M238" s="1" t="s">
+      <c r="N238" s="1" t="s">
         <v>2390</v>
-      </c>
-      <c r="N238" s="1" t="s">
-        <v>2391</v>
       </c>
       <c r="Q238" s="3">
         <v>23125</v>
@@ -48625,7 +48565,7 @@
         <v>42247</v>
       </c>
       <c r="AD238" s="1" t="s">
-        <v>2392</v>
+        <v>2391</v>
       </c>
       <c r="AF238" s="1" t="s">
         <v>103</v>
@@ -48676,7 +48616,7 @@
         <v>1419</v>
       </c>
       <c r="BH238" s="1" t="s">
-        <v>2393</v>
+        <v>2392</v>
       </c>
       <c r="BM238" s="1" t="s">
         <v>112</v>
@@ -48688,13 +48628,13 @@
         <v>205</v>
       </c>
       <c r="BR238" s="1" t="s">
-        <v>2394</v>
+        <v>2393</v>
       </c>
       <c r="BS238" s="3">
         <v>36580</v>
       </c>
       <c r="BT238" s="1" t="s">
-        <v>2395</v>
+        <v>2394</v>
       </c>
       <c r="BU238" s="1" t="s">
         <v>116</v>
@@ -48715,7 +48655,7 @@
         <v>98</v>
       </c>
       <c r="CC238" s="1" t="s">
-        <v>2396</v>
+        <v>2395</v>
       </c>
       <c r="CD238" s="1" t="s">
         <v>292</v>
@@ -48725,6 +48665,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:CF238" xr:uid="{E71BD1E3-97D2-4AF1-9A9F-0BA3A85D5AF7}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>